--- a/generated_docs/WR_89699991_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Bryant Murphy</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/27/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>846-2</t>
+          <t>704-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89699991_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7178.25</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +858,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G33" s="15" t="inlineStr"/>
       <c r="H33" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G35" s="15" t="inlineStr"/>
       <c r="H35" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="H36" s="13" t="n">
-        <v>6699.700000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89699991_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>7178.25</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +771,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +854,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1228,7 @@
       </c>
       <c r="G33" s="15" t="inlineStr"/>
       <c r="H33" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1262,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="35">
@@ -1300,7 +1296,7 @@
       </c>
       <c r="G35" s="15" t="inlineStr"/>
       <c r="H35" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="36">
@@ -1310,7 +1306,7 @@
         </is>
       </c>
       <c r="H36" s="13" t="n">
-        <v>0</v>
+        <v>6699.700000000002</v>
       </c>
     </row>
   </sheetData>
